--- a/biology/Microbiologie/Burkholderia/Burkholderia.xlsx
+++ b/biology/Microbiologie/Burkholderia/Burkholderia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Burkholderia (auparavant faisant partie du genre Pseudomonas) regroupe un ensemble de bactéries qui colonisent une très large variété de niches écologiques, c'est quasiment un genre ubiquiste. Ce sont des bactéries à coloration Gram négatives, mobiles, aérobies obligatoires formant des bâtonnets, et qui sont pour certaines espèces pathogènes pour l'homme, les animaux et les plantes. Néanmoins le genre comporte également des espèces importantes pour l'écologie de l'environnement. 
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sept premières espèces du genre Burkholderia ont d'abord été classées dans le genre Pseudomonas avant d'être caractérisées comme un genre à part entière en 1992 et transférées dans ce nouveau genre avec l'espèce Burkholderia cepacia comme espèce type[2]. Le nom du genre Burkholderia a ensuite été validé en 1993 d'où cette date d'autorité[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sept premières espèces du genre Burkholderia ont d'abord été classées dans le genre Pseudomonas avant d'être caractérisées comme un genre à part entière en 1992 et transférées dans ce nouveau genre avec l'espèce Burkholderia cepacia comme espèce type. Le nom du genre Burkholderia a ensuite été validé en 1993 d'où cette date d'autorité.
 Ce genre comprend des espèces connues pour être pathogène pour l'humain, les animaux et les plantes mais comprend aussi des espèces qui peuvent être importantes pour l'écologie et l'environnement. Par exemple, Burkholderia xenovorans (auparavant nommée Pseudomonas cepacia, puis Burkholderia cepacia et Burkholderia fungorum) est étudiée pour ses aptitudes de dégradation des liaisons organochlorées des pesticides et du polychlorobiphényle (PCB). 
 Ainsi certaines espèces de Burkholderia sont étudiées pour leurs capacités à réhabiliter le sol des friches industrielles chimiques, tandis que d'autres espèces du même genre présentent un intérêt dans les cultures pour leurs rôles au niveau de la rhizosphère.
 De par leurs résistances aux antibiotiques et les taux de mortalité qu'elles engendrent, les espèces Burkholderia mallei et Burkholderia pseudomallei peuvent être classées parmi les armes biologiques potentielles.
@@ -547,10 +561,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du genre Burkholderia est la suivante : Burk.hol.de’ria N.L. neut. pl. n. suff. -ia, suffixe utilisé pour désigner une classe; N.L. fem. n. Burkholderia, ce nom de genre a été proposé 1992 (avec Errata 1993) par Eiko Yabuuchi et collègues d'après le nom du phytopathologue Walter H. Burkholder, qui, au milieu du XXe siècle à l'université Cornell, étudia et décrit de nombreuses bactéries phytopathogènes[3],[4].
-Espèces valides
-Selon la LPSN  (12 décembre 2022)[5], les espèces du genre Burkholderia publiées de manière valides sont les suivantes :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du genre Burkholderia est la suivante : Burk.hol.de’ria N.L. neut. pl. n. suff. -ia, suffixe utilisé pour désigner une classe; N.L. fem. n. Burkholderia, ce nom de genre a été proposé 1992 (avec Errata 1993) par Eiko Yabuuchi et collègues d'après le nom du phytopathologue Walter H. Burkholder, qui, au milieu du XXe siècle à l'université Cornell, étudia et décrit de nombreuses bactéries phytopathogènes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Burkholderia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Burkholderia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (12 décembre 2022), les espèces du genre Burkholderia publiées de manière valides sont les suivantes :
 Burkholderia aenigmatica Depoorter et al. 2020
 Burkholderia ambifaria Coenye et al. 2001
 Burkholderia anthina Vandamme et al. 2002
@@ -589,9 +643,43 @@
 Burkholderia ubonensis corrig. Yabuuchi et al. 2000
 Burkholderia unamae Caballero-Mellado et al. 2004
 Burkholderia vietnamiensis Gillis et al. 1995
-Burkholderia xenovorans Goris et al. 2004
-Espèces non validées
-Plusieurs espèces n'ont pas été publiées de manière valide ou sont en attente de validation, selon la LPSN  (12 décembre 2022)[5], on trouve dans ces cas précis, les espèces suivantes :
+Burkholderia xenovorans Goris et al. 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Burkholderia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Burkholderia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces non validées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plusieurs espèces n'ont pas été publiées de manière valide ou sont en attente de validation, selon la LPSN  (12 décembre 2022), on trouve dans ces cas précis, les espèces suivantes :
 Burkholderia agricolaris Shu et al. 2018
 Candidatus Burkholderia alatipes Lemaire et al. 2011
 Burkholderia alba Lee et al. 2018
@@ -604,9 +692,43 @@
 Candidatus Burkholderia brachyantha Lemaire et al. 2011
 Candidatus Burkholderia brachyanthoides Lemaire et al. 2011
 Burkholderia brasilensis Baldani et al. 1997
-Candidatus Burkholderia brevipaniculata Lemaire et al. 2011
-Espèces synonymes
-Toujours selon la LPSN  (12 décembre 2022)[5], plusieurs espèces de ce genre sont considérées comme des synonymes et dont le nom ne doit plus être utilisé, à savoir :
+Candidatus Burkholderia brevipaniculata Lemaire et al. 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Burkholderia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Burkholderia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toujours selon la LPSN  (12 décembre 2022), plusieurs espèces de ce genre sont considérées comme des synonymes et dont le nom ne doit plus être utilisé, à savoir :
 Burkholderia acidipaludis est un synonyme de l'espèce Paraburkholderia acidipaludis (Aizawa et al. 2010) Sawana et al. 2017
 Burkholderia alpina est un synonyme de l'espèce Pararobbsia alpina (Weber and King 2017) Lin et al. 2020
 Burkholderia andropogonis est un synonyme de l'espèce Robbsia andropogonis (Smith 1911) Lopes-Santos et al. 2017
@@ -621,31 +743,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Burkholderia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Burkholderia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces suivantes sont connues pour leurs pathogènicités vis-à-vis de l'homme et ou d'autres animaux :
 Burkholderia mallei,
